--- a/Team 10 - IDMachine.xlsx
+++ b/Team 10 - IDMachine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhongvuong/Documents/GitHub/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40C2162-2AB6-8D42-AC34-84D54539B948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC4C3D-D418-5C4A-968D-540FAEC7D6F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0F92D7AB-35EC-AF4E-BD05-6588DE0757E8}"/>
   </bookViews>
@@ -134,6 +134,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71B3B3B4-4936-7445-B371-A21BA1A687E2}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{D93FED81-AA59-E547-BB94-B61BE687EA3A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6111EC53-6525-B044-806D-CCD4B2CEE087}" name="No.">
+      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{9C12C070-545A-7D4F-AC8F-D4693D9677AB}" name="First Name"/>
+    <tableColumn id="3" xr3:uid="{164043B0-A097-FA4B-981A-EFB0A8331B07}" name="Last Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,13 +450,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -545,5 +559,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>